--- a/outs/БИ4.xlsx
+++ b/outs/БИ4.xlsx
@@ -1,3 +1,357 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epyur\PycharmProjects\PythonProject\outs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE14F9-E62F-4748-A639-EF1D5B6143F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0" calcOnSave="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
+  <si>
+    <t>Входящие заявки</t>
+  </si>
+  <si>
+    <t>Горючесть, серия 1</t>
+  </si>
+  <si>
+    <t>Горючесть, серия 2</t>
+  </si>
+  <si>
+    <t>Горючесть, серия 3</t>
+  </si>
+  <si>
+    <t>№ заявки</t>
+  </si>
+  <si>
+    <t>ID заявки</t>
+  </si>
+  <si>
+    <t>Дата поступления заявки</t>
+  </si>
+  <si>
+    <t>e-mail заказчика</t>
+  </si>
+  <si>
+    <t>Цель испытания</t>
+  </si>
+  <si>
+    <t>Форма подтверждения соответствия</t>
+  </si>
+  <si>
+    <t>Приоритетность заявки</t>
+  </si>
+  <si>
+    <t>Оцениваемая характеристика</t>
+  </si>
+  <si>
+    <t>Провести испытания во внешней лаборатории</t>
+  </si>
+  <si>
+    <t>Наименование внешней лаборатории</t>
+  </si>
+  <si>
+    <t>ЕКН материала (системы)</t>
+  </si>
+  <si>
+    <t>Наименование материала (при отсутствии ЕКН)</t>
+  </si>
+  <si>
+    <t>Идентификационные признаки образца</t>
+  </si>
+  <si>
+    <t>Описание материала, для помещения в протокол</t>
+  </si>
+  <si>
+    <t>Тип материала (для отдельных групп методов)</t>
+  </si>
+  <si>
+    <t>Количество образцов передаваемых на испытания</t>
+  </si>
+  <si>
+    <t>Фактическая толщина передаваемого образца</t>
+  </si>
+  <si>
+    <t>Целевой показатель (для НИОКР)</t>
+  </si>
+  <si>
+    <t>Ссылки на приложенные файлы</t>
+  </si>
+  <si>
+    <t>ID записи протокола</t>
+  </si>
+  <si>
+    <t>Дата протокола</t>
+  </si>
+  <si>
+    <t>№ записи заявки на испытания</t>
+  </si>
+  <si>
+    <t>Лаборатория</t>
+  </si>
+  <si>
+    <t>Испытатель</t>
+  </si>
+  <si>
+    <t>Дата поступления образцов</t>
+  </si>
+  <si>
+    <t>Дата проведения испытаний</t>
+  </si>
+  <si>
+    <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+  </si>
+  <si>
+    <t>Температура дымовых газов</t>
+  </si>
+  <si>
+    <t>Время достижения максимальной температуры, с</t>
+  </si>
+  <si>
+    <t>Длина повреждения образца 1 образца</t>
+  </si>
+  <si>
+    <t>Длина повреждений 2 образца</t>
+  </si>
+  <si>
+    <t>Длина повреждений 3 образца</t>
+  </si>
+  <si>
+    <t>Длина повреждений 4 образца</t>
+  </si>
+  <si>
+    <t>Масса образцов до испытания</t>
+  </si>
+  <si>
+    <t>Масса образцов после испытания</t>
+  </si>
+  <si>
+    <t>Время самостоятельного горения</t>
+  </si>
+  <si>
+    <t>Падение горящих капель расплава</t>
+  </si>
+  <si>
+    <t>Тип основания под образец</t>
+  </si>
+  <si>
+    <t>Способ крепления образца</t>
+  </si>
+  <si>
+    <t>Дополнительная информация</t>
+  </si>
+  <si>
+    <t>Фото образцов до испытания</t>
+  </si>
+  <si>
+    <t>Фото образцов после испытания</t>
+  </si>
+  <si>
+    <t>График температуры</t>
+  </si>
+  <si>
+    <t>Номер серии</t>
+  </si>
+  <si>
+    <t>Средняя длина повреждений</t>
+  </si>
+  <si>
+    <t>Потеря массы</t>
+  </si>
+  <si>
+    <t>Температура</t>
+  </si>
+  <si>
+    <t>Давление</t>
+  </si>
+  <si>
+    <t>Влажность</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1895738940</t>
+  </si>
+  <si>
+    <t>14.11.2024</t>
+  </si>
+  <si>
+    <t>polishchuk@tn.ru</t>
+  </si>
+  <si>
+    <t>Подтверждение соответствия</t>
+  </si>
+  <si>
+    <t>Текущий производственный контроль</t>
+  </si>
+  <si>
+    <t>В порядке общей очереди</t>
+  </si>
+  <si>
+    <t>Определение группы горючести</t>
+  </si>
+  <si>
+    <t>500464</t>
+  </si>
+  <si>
+    <t>20248</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ID_Out</t>
+  </si>
+  <si>
+    <t>Date_in</t>
+  </si>
+  <si>
+    <t>ID_in</t>
+  </si>
+  <si>
+    <t>ext lab</t>
+  </si>
+  <si>
+    <t>inventor</t>
+  </si>
+  <si>
+    <t>day inc prod</t>
+  </si>
+  <si>
+    <t>dayX</t>
+  </si>
+  <si>
+    <t>link to report</t>
+  </si>
+  <si>
+    <t>type of osn</t>
+  </si>
+  <si>
+    <t>Плотность теплового потока, Вт/м2</t>
+  </si>
+  <si>
+    <t>Факт воспламенения</t>
+  </si>
+  <si>
+    <t>Время воспламенения</t>
+  </si>
+  <si>
+    <t>dop inf</t>
+  </si>
+  <si>
+    <t>№ образца</t>
+  </si>
+  <si>
+    <t>Образец №1</t>
+  </si>
+  <si>
+    <t>Образец №2</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="3">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{CC9D31D6-4436-4F00-B7BD-55681B32FEDE}"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
@@ -312,4 +666,824 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EQ4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="ED10" sqref="ED10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="44" width="9.140625" customWidth="1" outlineLevel="2"/>
+    <col min="45" max="45" width="14.5703125" customWidth="1" outlineLevel="2"/>
+    <col min="46" max="49" width="9.140625" customWidth="1" outlineLevel="2"/>
+    <col min="50" max="50" width="5" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="80" width="9.140625" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="81" max="81" width="4.140625" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="82" max="111" width="9.140625" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="112" max="112" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DI1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="DJ1" s="9"/>
+      <c r="DK1" s="9"/>
+      <c r="DL1" s="9"/>
+      <c r="DM1" s="9"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="9"/>
+      <c r="DP1" s="9"/>
+      <c r="DQ1" s="9"/>
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="9"/>
+      <c r="DX1" s="9"/>
+      <c r="DY1" s="9"/>
+      <c r="EA1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="EB1" s="9"/>
+      <c r="EC1" s="9"/>
+      <c r="ED1" s="9"/>
+      <c r="EE1" s="9"/>
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="9"/>
+      <c r="EH1" s="9"/>
+      <c r="EI1" s="9"/>
+      <c r="EJ1" s="9"/>
+      <c r="EK1" s="9"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="9"/>
+      <c r="EN1" s="9"/>
+      <c r="EO1" s="9"/>
+      <c r="EP1" s="9"/>
+      <c r="EQ1" s="9"/>
+    </row>
+    <row r="2" spans="1:147" s="5" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DI2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="DK2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="DN2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="DO2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="DP2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="DQ2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="DS2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="DT2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="DU2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DV2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="DX2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="EA2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="EB2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="EC2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="EE2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="EF2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="EG2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="EH2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="EI2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="EJ2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="EK2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="EL2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="EM2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="EN2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="EO2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="EP2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="EQ2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+    </row>
+    <row r="4" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="EA1:EQ1"/>
+    <mergeCell ref="AY1:CB1"/>
+    <mergeCell ref="CD1:DG1"/>
+    <mergeCell ref="T1:AW1"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="DI1:DY1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>